--- a/data/tab_PLSR_Ncomp2_RegionalFC_PctVarPvalFDR_MIST64.xlsx
+++ b/data/tab_PLSR_Ncomp2_RegionalFC_PctVarPvalFDR_MIST64.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="68">
   <si>
     <t>ROInames</t>
   </si>
@@ -241,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -257,11 +257,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -271,6 +279,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,21 +306,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -318,7 +334,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -332,7 +348,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -346,7 +362,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -360,7 +376,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -374,7 +390,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -388,7 +404,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -402,7 +418,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -416,7 +432,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -430,7 +446,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -444,7 +460,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -458,7 +474,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -472,7 +488,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -486,7 +502,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -500,7 +516,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -514,7 +530,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -528,7 +544,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -542,7 +558,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -556,7 +572,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -570,7 +586,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -584,7 +600,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -598,7 +614,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -612,7 +628,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -626,7 +642,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -640,7 +656,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -654,7 +670,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -668,7 +684,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -682,7 +698,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -696,7 +712,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -710,7 +726,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -724,7 +740,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -738,7 +754,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -752,7 +768,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -766,7 +782,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -780,7 +796,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -794,7 +810,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -808,7 +824,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -822,7 +838,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -836,7 +852,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -850,7 +866,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -864,7 +880,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -878,7 +894,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -892,7 +908,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -906,7 +922,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -920,7 +936,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -934,7 +950,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -948,7 +964,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -962,7 +978,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -976,7 +992,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -990,7 +1006,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1004,7 +1020,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1018,7 +1034,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1032,7 +1048,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1046,7 +1062,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1060,7 +1076,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1074,7 +1090,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1088,7 +1104,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1102,7 +1118,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1116,7 +1132,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1130,7 +1146,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1144,7 +1160,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1158,7 +1174,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1172,7 +1188,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1186,7 +1202,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1215,21 +1231,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1243,7 +1259,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1257,7 +1273,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1271,7 +1287,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1285,7 +1301,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1299,7 +1315,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1313,7 +1329,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1327,7 +1343,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1341,7 +1357,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1355,7 +1371,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1369,7 +1385,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1383,7 +1399,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1397,7 +1413,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1411,7 +1427,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1425,7 +1441,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1439,7 +1455,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1453,7 +1469,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1467,7 +1483,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1481,7 +1497,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1495,7 +1511,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1509,7 +1525,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1523,7 +1539,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1537,7 +1553,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1551,7 +1567,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1565,7 +1581,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1579,7 +1595,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1593,7 +1609,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1607,7 +1623,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1621,7 +1637,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1635,7 +1651,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1649,7 +1665,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1663,7 +1679,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1677,7 +1693,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1691,7 +1707,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1705,7 +1721,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1719,7 +1735,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1733,7 +1749,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1747,7 +1763,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1761,7 +1777,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1775,7 +1791,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1789,7 +1805,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1803,7 +1819,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1817,7 +1833,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1831,7 +1847,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1845,7 +1861,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1859,7 +1875,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1873,7 +1889,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1887,7 +1903,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1901,7 +1917,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1915,7 +1931,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1929,7 +1945,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1943,7 +1959,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1957,7 +1973,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1971,7 +1987,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1985,7 +2001,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1999,7 +2015,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2013,7 +2029,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2027,7 +2043,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2041,7 +2057,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2055,7 +2071,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2069,7 +2085,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2083,7 +2099,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2097,7 +2113,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2111,7 +2127,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2140,21 +2156,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2168,7 +2184,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2182,7 +2198,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2196,7 +2212,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2210,7 +2226,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2224,7 +2240,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2238,7 +2254,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2252,7 +2268,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2266,7 +2282,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2280,7 +2296,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2294,7 +2310,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2308,7 +2324,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2322,7 +2338,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2336,7 +2352,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2350,7 +2366,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2364,7 +2380,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2378,7 +2394,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2392,7 +2408,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2406,7 +2422,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2420,7 +2436,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2434,7 +2450,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2448,7 +2464,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2462,7 +2478,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2476,7 +2492,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2490,7 +2506,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2504,7 +2520,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2518,7 +2534,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2532,7 +2548,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2546,7 +2562,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2560,7 +2576,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2574,7 +2590,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2588,7 +2604,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2602,7 +2618,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2616,7 +2632,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2630,7 +2646,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2644,7 +2660,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2658,7 +2674,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2672,7 +2688,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2686,7 +2702,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2700,7 +2716,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2714,7 +2730,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2728,7 +2744,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2742,7 +2758,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2756,7 +2772,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2770,7 +2786,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2784,7 +2800,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2798,7 +2814,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2812,7 +2828,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2826,7 +2842,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2840,7 +2856,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2854,7 +2870,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2868,7 +2884,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2882,7 +2898,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2896,7 +2912,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2910,7 +2926,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2924,7 +2940,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2938,7 +2954,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2952,7 +2968,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2966,7 +2982,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2980,7 +2996,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2994,7 +3010,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3008,7 +3024,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3022,7 +3038,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3036,7 +3052,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -3065,21 +3081,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3093,7 +3109,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3107,7 +3123,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3121,7 +3137,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3135,7 +3151,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3149,7 +3165,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3163,7 +3179,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3177,7 +3193,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3191,7 +3207,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3205,7 +3221,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3219,7 +3235,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3233,7 +3249,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3247,7 +3263,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3261,7 +3277,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3275,7 +3291,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3289,7 +3305,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3303,7 +3319,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3317,7 +3333,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3331,7 +3347,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3345,7 +3361,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3359,7 +3375,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3373,7 +3389,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3387,7 +3403,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3401,7 +3417,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3415,7 +3431,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3429,7 +3445,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3443,7 +3459,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -3457,7 +3473,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -3471,7 +3487,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3485,7 +3501,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3499,7 +3515,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -3513,7 +3529,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -3527,7 +3543,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -3541,7 +3557,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -3555,7 +3571,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -3569,7 +3585,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -3583,7 +3599,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -3597,7 +3613,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3611,7 +3627,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -3625,7 +3641,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -3639,7 +3655,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -3653,7 +3669,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3667,7 +3683,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3681,7 +3697,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -3695,7 +3711,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -3709,7 +3725,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -3723,7 +3739,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3737,7 +3753,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3751,7 +3767,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3765,7 +3781,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3779,7 +3795,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3793,7 +3809,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3807,7 +3823,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3821,7 +3837,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3835,7 +3851,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3849,7 +3865,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3863,7 +3879,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3877,7 +3893,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3891,7 +3907,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3905,7 +3921,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3919,7 +3935,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -3933,7 +3949,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -3947,7 +3963,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -3961,7 +3977,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B65">
